--- a/Examples/xlRcode - Function examples.xlsx
+++ b/Examples/xlRcode - Function examples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27204"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Meus Projetos\xlRcode\GitHub\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1154B87D-0545-43D2-B3F9-E92CD3D3544B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEF0B5D-7F4C-43EB-AC4F-BFCEA9A7F19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26400" yWindow="-315" windowWidth="29040" windowHeight="15840" xr2:uid="{452424EF-212F-4092-94A5-3FDC06BF9BC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" xr2:uid="{452424EF-212F-4092-94A5-3FDC06BF9BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Function List" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="STARTSWITH">_xlfn.LAMBDA(_xlpm.x,_xlpm.prefix, _xll.XLRFUNC("base::startsWith", , "prefix", _xlpm.prefix, "...", _xlpm.x))</definedName>
     <definedName name="WHICH">_xlfn.LAMBDA(_xlpm.x,_xlop.arr_ind,_xlop.useNames, _xll.XLRFUNC("base::which", , "arr.ind", _xlpm.arr_ind, "useNames", _xlpm.useNames, "...", _xlpm.x))</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Examples of Excel Lambda functions that access R functions</t>
-  </si>
-  <si>
-    <t>Date: January 20h, 2023</t>
   </si>
   <si>
     <t>Source: https://github.com/edugca/xlRcode</t>
@@ -368,12 +365,15 @@
     <t>Determines if entries of x end with string (entries of) suffix respectively, where strings are recycled to common lengths.</t>
   </si>
   <si>
-    <t>xlRcode v. 0.1.8 (Functions v. 0.1)</t>
-  </si>
-  <si>
     <t>To use any of these functions in your own spreadsheet, follow instructions on cell H10.
 Note that auxiliary functions will be automatically copied as well.
 Alternatively, go in the ribbon to Formula / Name Manager and copy all lambda formulas available there.</t>
+  </si>
+  <si>
+    <t>xlRcode v. 0.2.0 (Functions v. 0.1)</t>
+  </si>
+  <si>
+    <t>Date: December 18th, 2023</t>
   </si>
 </sst>
 </file>
@@ -637,9 +637,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="2" builtinId="21"/>
+    <cellStyle name="Saída" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -699,13 +699,13 @@
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
 <rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <rv s="0">
+    <v>2</v>
     <v>7</v>
-    <v>2</v>
     <v>19</v>
   </rv>
   <rv s="0">
+    <v>2</v>
     <v>3</v>
-    <v>2</v>
     <v>19</v>
   </rv>
   <rv s="0">
@@ -719,17 +719,17 @@
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
 <rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
   <s t="_error">
+    <k n="errorType" t="i"/>
     <k n="argument" t="s"/>
-    <k n="errorType" t="i"/>
     <k n="subType" t="i"/>
   </s>
 </rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -767,7 +767,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -873,7 +873,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1015,7 +1015,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1026,7 +1026,7 @@
   <dimension ref="B1:K22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,18 +1056,18 @@
     </row>
     <row r="4" spans="2:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:11" s="3" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT(C10&amp;"!A2")</f>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT(C11&amp;"!A2")</f>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDIRECT(C15&amp;"!A2")</f>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDIRECT(C16&amp;"!A2")</f>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDIRECT(C17&amp;"!A2")</f>
@@ -1245,7 +1245,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -1273,58 +1273,58 @@
     </row>
     <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B6" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    </row>
+    <row r="9" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B9" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B11" s="13" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1342,16 +1342,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E14" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>10</v>
@@ -1362,13 +1362,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" s="15" t="str" cm="1">
         <f t="array" ref="J15:K23">_xlfn.LAMBDA(_xlpm.names_arg,_xlop.minlength,_xlop.use_classes,_xlop.dot,_xlop.strict,_xlop.method,_xlop.named, _xll.XLRFUNC("abbreviate", , "names.arg", _xlpm.names_arg, "minlength", _xlpm.minlength, "use.classes", _xlpm.use_classes, "dot", _xlpm.dot, "strict", _xlpm.strict, "method", _xlpm.method, "named", _xlpm.named))($F$14:$H$16,$F$18,$F$19,$F$20,$F$21,$F$22,$F$23)</f>
@@ -1387,13 +1387,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J16" s="15" t="str">
         <v>São Paulo</v>
@@ -1430,7 +1430,7 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="20">
         <v>2</v>
@@ -1470,7 +1470,7 @@
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="20" t="b">
         <v>1</v>
@@ -1510,7 +1510,7 @@
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="20" t="b">
         <v>0</v>
@@ -1550,7 +1550,7 @@
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="20" t="b">
         <v>0</v>
@@ -1590,10 +1590,10 @@
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
@@ -1630,7 +1630,7 @@
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="20" t="b">
         <v>1</v>
@@ -9329,9 +9329,7 @@
   </sheetPr>
   <dimension ref="A1:Y294"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9339,7 +9337,7 @@
     <col min="2" max="2" width="67.42578125" style="7" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="19" customWidth="1"/>
+    <col min="6" max="8" width="12.42578125" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" style="11" customWidth="1"/>
     <col min="11" max="11" width="9" style="11" customWidth="1"/>
@@ -9358,7 +9356,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -9375,18 +9373,18 @@
     </row>
     <row r="5" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -9403,7 +9401,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E9" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="20" t="b">
         <v>1</v>
@@ -9466,7 +9464,7 @@
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="20" t="b">
         <v>0</v>
@@ -17063,7 +17061,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -17072,7 +17070,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -17089,26 +17087,26 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="13" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -17121,7 +17119,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E10" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="20">
         <v>1</v>
@@ -17215,7 +17213,7 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="20">
         <v>0</v>
@@ -17325,7 +17323,7 @@
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="20">
         <v>2</v>
@@ -23202,7 +23200,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -23219,18 +23217,18 @@
     </row>
     <row r="5" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="B6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -23247,7 +23245,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E9" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="20">
         <v>1</v>
@@ -23318,7 +23316,7 @@
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="20" t="b">
         <v>0</v>
@@ -30925,7 +30923,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
@@ -30946,18 +30944,18 @@
     </row>
     <row r="5" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="B6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -30970,7 +30968,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E9" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="20">
         <v>1</v>
@@ -31074,7 +31072,7 @@
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="20" t="b">
         <v>0</v>
@@ -39283,7 +39281,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -39292,7 +39290,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -39309,18 +39307,18 @@
     </row>
     <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -39333,16 +39331,16 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E9" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>10</v>
@@ -39353,13 +39351,13 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F10" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="11" t="b" cm="1">
         <f t="array" ref="J10:J18">_xlfn.LAMBDA(_xlpm.x,_xlpm.suffix, _xll.XLRFUNC("base::endsWith", , "suffix", _xlpm.suffix, "...", _xlpm.x))($F$9:$H$11, $F$13)</f>
@@ -39372,13 +39370,13 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F11" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="11" t="b">
         <v>0</v>
@@ -39401,10 +39399,10 @@
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -45931,7 +45929,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -45940,7 +45938,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -45957,18 +45955,18 @@
     </row>
     <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -45981,16 +45979,16 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E9" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>10</v>
@@ -46001,13 +45999,13 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F10" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="11" t="b" cm="1">
         <f t="array" ref="J10:J18">_xlfn.LAMBDA(_xlpm.x,_xlpm.prefix, _xll.XLRFUNC("base::startsWith", , "prefix", _xlpm.prefix, "...", _xlpm.x))($F$9:$H$11, $F$13)</f>
@@ -46020,13 +46018,13 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F11" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="11" t="b">
         <v>1</v>
@@ -46049,10 +46047,10 @@
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -52558,9 +52556,7 @@
   </sheetPr>
   <dimension ref="A1:Y295"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -52568,7 +52564,7 @@
     <col min="2" max="2" width="73.5703125" style="7" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="19" customWidth="1"/>
+    <col min="6" max="8" width="12.42578125" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" style="11" customWidth="1"/>
     <col min="11" max="11" width="9" style="11" customWidth="1"/>
@@ -52578,7 +52574,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -52587,7 +52583,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -52604,26 +52600,26 @@
     </row>
     <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>62</v>
-      </c>
       <c r="B7" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -52636,7 +52632,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E10" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="20" t="b">
         <v>0</v>
@@ -52704,7 +52700,7 @@
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="20" t="b">
         <v>0</v>
@@ -52737,7 +52733,7 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="20" t="b">
         <v>0</v>
